--- a/TestAutomation/test_data.xlsx
+++ b/TestAutomation/test_data.xlsx
@@ -28,6 +28,7 @@
  "id": "b0084a71-0655-b710-61a9-015458f45557",
  "ecommOrderId": "123456789111",
  "customerEmail": "narayan@motorola.com",
+ "Email":"narayan@motorola.com",
  "customerType": "Personal",
  "customerServiceOrderId": "LNV99999999",
  "optin": "true",
@@ -146,7 +147,6 @@
  "city": "朝阳",
  "countryCode": "CN",
  "firstName": "",
- "lastName": "张佳佳",
  "stateCode": "辽宁",
  "addressType": "",
  "phone": "18999998876",
@@ -176,7 +176,6 @@
  "city": "朝阳",
  "countryCode": "CN",
  "firstName": "",
- "lastName": "张佳佳",
  "stateCode": "辽宁",
  "addressType": "",
  "phone": "18999998876",
